--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_8_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_8_square_0.1_.xlsx
@@ -571,55 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.25000000000051</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>6.079547976156618e-10</v>
       </c>
       <c r="H2" t="n">
-        <v>3.844928223810066e-16</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9043089952036755</v>
-      </c>
+        <v>2.830620666353716e-09</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>55.70120182630344</v>
+        <v>39.84822472011997</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[40.68312394542748, 70.7192797071794]</t>
+          <t>[27.513550208699826, 52.182899231540105]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7.067679774763747e-12</v>
+        <v>1.384267589443766e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>7.067679774763747e-12</v>
+        <v>2.768535178887532e-09</v>
       </c>
       <c r="O2" t="n">
-        <v>1.993763505881811</v>
+        <v>1.515763422452732</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.7044476659115801, 2.283079345852041]</t>
+          <t>[1.1258159859711165, 1.9057108589343477]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8.968381592922015e-13</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.968381592922015e-13</v>
       </c>
       <c r="S2" t="n">
-        <v>66.79723582715258</v>
+        <v>63.85532348432839</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[58.567419480764926, 75.02705217354023]</t>
+          <t>[55.731968111292275, 71.97867885736451]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.23773773773809</v>
+        <v>18.80204204204237</v>
       </c>
       <c r="X2" t="n">
-        <v>16.0750750750754</v>
+        <v>17.26414414414445</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.40040040040077</v>
+        <v>20.3399399399403</v>
       </c>
     </row>
     <row r="3">
@@ -654,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.060539434050156e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>3.844928223810066e-16</v>
+        <v>1.65668924362116e-09</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>51.35794133473249</v>
+        <v>37.59990811139389</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[39.20747980658829, 63.5084028628767]</t>
+          <t>[25.468456274557923, 49.731359948229866]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>6.661338147750939e-15</v>
+        <v>4.1496874825242e-09</v>
       </c>
       <c r="N3" t="n">
-        <v>1.332267629550188e-14</v>
+        <v>4.1496874825242e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>2.88686892492035</v>
+        <v>1.792500312859042</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.6227109840779654, 3.151026865762735]</t>
+          <t>[1.4277107755052736, 2.157289850212811]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -696,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>66.84515014115675</v>
+        <v>63.78156880818275</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[59.768996019502886, 73.92130426281062]</t>
+          <t>[56.488898270417835, 71.07423934594766]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.04864864864899</v>
+        <v>18.15375375375413</v>
       </c>
       <c r="X3" t="n">
-        <v>12.95597597597629</v>
+        <v>16.67907907907943</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.14132132132168</v>
+        <v>19.62842842842883</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_8_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_8_square_0.1_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.78000000000043</v>
+        <v>24.05000000000032</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>6.079547976156618e-10</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.830620666353716e-09</v>
+        <v>9.06304509898087e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>39.84822472011997</v>
+        <v>54.40853085077001</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[27.513550208699826, 52.182899231540105]</t>
+          <t>[39.93123068422716, 68.88583101731285]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.384267589443766e-09</v>
+        <v>4.013900323229791e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>2.768535178887532e-09</v>
+        <v>8.027800646459582e-12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.515763422452732</v>
+        <v>1.10065808684327</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.1258159859711165, 1.9057108589343477]</t>
+          <t>[0.823921196436963, 1.377394977249578]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>8.968381592922015e-13</v>
+        <v>3.097522238704187e-13</v>
       </c>
       <c r="R2" t="n">
-        <v>8.968381592922015e-13</v>
+        <v>3.097522238704187e-13</v>
       </c>
       <c r="S2" t="n">
-        <v>63.85532348432839</v>
+        <v>64.7789519002292</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.731968111292275, 71.97867885736451]</t>
+          <t>[56.84256265016779, 72.71534115029061]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.80204204204237</v>
+        <v>19.8370370370373</v>
       </c>
       <c r="X2" t="n">
-        <v>17.26414414414445</v>
+        <v>18.77777777777803</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.3399399399403</v>
+        <v>20.89629629629657</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.40000000000053</v>
+        <v>25.60000000000056</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.060539434050156e-10</v>
+        <v>5.46229728115577e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>1.65668924362116e-09</v>
+        <v>1.540900144244848e-13</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>37.59990811139389</v>
+        <v>39.79385418160679</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[25.468456274557923, 49.731359948229866]</t>
+          <t>[27.483751863128973, 52.10395650008461]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.1496874825242e-09</v>
+        <v>9.826628399878246e-10</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1496874825242e-09</v>
+        <v>9.826628399878246e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.792500312859042</v>
+        <v>2.119553001521042</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.4277107755052736, 2.157289850212811]</t>
+          <t>[1.8050792624229643, 2.434026740619119]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>63.78156880818275</v>
+        <v>66.79497367700807</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[56.488898270417835, 71.07423934594766]</t>
+          <t>[60.21473728675304, 73.37521006726311]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.15375375375413</v>
+        <v>16.96416416416454</v>
       </c>
       <c r="X3" t="n">
-        <v>16.67907907907943</v>
+        <v>15.68288288288323</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.62842842842883</v>
+        <v>18.24544544544585</v>
       </c>
     </row>
   </sheetData>
